--- a/DB/users.xlsx
+++ b/DB/users.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoanpd1.HOANPD1\Desktop\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source Code\Caka-ICT\Java\Caka-ICT_Java_Library\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="15240" windowHeight="7200" activeTab="1"/>
+    <workbookView xWindow="3810" yWindow="0" windowWidth="15240" windowHeight="7200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="451">
   <si>
     <t>user_id</t>
   </si>
@@ -1388,7 +1388,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1873,68 +1873,68 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="68.625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.25" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="10" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>112</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>113</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>114</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>115</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>116</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>117</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>119</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>121</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>122</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>123</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>124</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>125</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>126</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>127</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>128</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>129</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>130</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>43063.999988425923</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>131</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>42947.833321759259</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>133</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>42947.999988425923</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>134</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>42947.833321759259</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>135</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>42946.833321759259</v>
       </c>
     </row>
-    <row r="24" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>136</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>42969.999988425923</v>
       </c>
     </row>
-    <row r="25" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>137</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>43024.833321759259</v>
       </c>
     </row>
-    <row r="26" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>138</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>139</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>140</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>142</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>143</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>144</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>145</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>146</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>147</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>149</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>150</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>152</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>153</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>155</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>162</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>163</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>164</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>166</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>171</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>172</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>173</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>174</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>175</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>176</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>177</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>178</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>179</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>180</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>181</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>182</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>183</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>184</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>185</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>186</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>187</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>188</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>194</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>195</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>196</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>197</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>198</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>199</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>200</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>201</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>202</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>203</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>204</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>205</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>206</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>207</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>209</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>212</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>213</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>214</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>215</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>216</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>221</v>
       </c>
@@ -7058,21 +7058,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="8"/>
+    <col min="7" max="16384" width="9.125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -7723,157 +7723,169 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C37" s="10">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D37" s="10">
         <v>0</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C38" s="10">
-        <v>64</v>
+        <v>500</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="11" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C39" s="10">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D39" s="10">
         <v>0</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C40" s="10">
-        <v>500</v>
+        <v>64</v>
       </c>
       <c r="D40" s="10">
         <v>0</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C41" s="10">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D41" s="10">
         <v>0</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C42" s="10">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C43" s="10">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D43" s="10">
         <v>0</v>
       </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C44" s="10">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
       </c>
       <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C45" s="10">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D45" s="10">
         <v>0</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
+      <c r="F45" s="11" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>404</v>
@@ -7885,229 +7897,25 @@
         <v>0</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="10" t="s">
+      <c r="F46" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="13">
         <v>64</v>
       </c>
-      <c r="D47" s="10">
-        <v>0</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C48" s="10">
-        <v>64</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C49" s="10">
-        <v>30</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C50" s="10">
-        <v>64</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C51" s="10">
-        <v>800</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C52" s="10">
-        <v>6</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C53" s="10">
-        <v>100</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C54" s="10">
-        <v>64</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C55" s="10">
-        <v>50</v>
-      </c>
-      <c r="D55" s="10">
-        <v>0</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C56" s="10">
-        <v>64</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="11" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C57" s="10">
-        <v>6</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C58" s="10">
-        <v>6</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="C59" s="13">
-        <v>64</v>
-      </c>
-      <c r="D59" s="13">
-        <v>0</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14" t="s">
+      <c r="D47" s="13">
+        <v>0</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14" t="s">
         <v>443</v>
       </c>
     </row>
